--- a/datas/excel_test_datas.xlsx
+++ b/datas/excel_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16350" windowHeight="9495" firstSheet="18" activeTab="20"/>
+    <workbookView windowWidth="16350" windowHeight="9495" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="服务器接口" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,14 @@
     <sheet name="房源管理-房堪" sheetId="19" r:id="rId19"/>
     <sheet name="房源管理-委托" sheetId="20" r:id="rId20"/>
     <sheet name="房源管理-笋盘" sheetId="21" r:id="rId21"/>
-    <sheet name="Sheet2" sheetId="22" r:id="rId22"/>
+    <sheet name="获取经纪人下加密和推荐的房源数" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="521">
   <si>
     <t>id</t>
   </si>
@@ -1747,21 +1747,61 @@
   <si>
     <t>{"caseId":"7873821","caseType":"1","focusBound":"1","isImmediate":"0","isSaleLease":"0","trackContent":"213213213213","trackTag":"94|110","trackType":"80","warmContent":"","warmTime":"","warmedUsers":"20174961"}</t>
   </si>
+  <si>
+    <t>get_pwdCount_001</t>
+  </si>
+  <si>
+    <t>正确的经纪人id和房源类型，查询成功</t>
+  </si>
+  <si>
+    <t>1.有效的clinetkey
+2.已注册的经纪人</t>
+  </si>
+  <si>
+    <t>http://hft.myfun7.com/houseWeb/erp/funHouse/getPwdCount</t>
+  </si>
+  <si>
+    <t>{"caseType":"1","infoOwnerUserId":"20174961"}</t>
+  </si>
+  <si>
+    <t>get_pwdCount_002</t>
+  </si>
+  <si>
+    <t>经纪人id为空，查询失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有效的clinetkey
+</t>
+  </si>
+  <si>
+    <t>{"caseType":"1","infoOwnerUserId":""}</t>
+  </si>
+  <si>
+    <t>{"errCode":300,"errMsg":"信息所属人不存在，请检查数据是否正确!"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1776,14 +1816,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1831,67 +1863,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1912,9 +1884,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1927,9 +1929,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1971,7 +2003,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,13 +2105,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2001,19 +2135,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2025,49 +2171,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2079,79 +2183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2166,39 +2198,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2228,6 +2236,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2248,17 +2271,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2270,10 +2302,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2282,133 +2314,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2419,19 +2451,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2449,7 +2481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -2461,7 +2493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2870,7 +2902,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="15" t="s">
@@ -2928,7 +2960,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -3116,7 +3148,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>278</v>
       </c>
       <c r="G2" t="s">
@@ -3224,7 +3256,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G2" t="s">
@@ -3253,7 +3285,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G3" t="s">
@@ -3282,7 +3314,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G4" t="s">
@@ -3311,7 +3343,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G5" t="s">
@@ -3340,7 +3372,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G6" t="s">
@@ -3369,7 +3401,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G7" t="s">
@@ -3398,7 +3430,7 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G8" t="s">
@@ -3427,7 +3459,7 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G9" t="s">
@@ -3456,7 +3488,7 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G10" t="s">
@@ -3485,7 +3517,7 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G11" t="s">
@@ -3514,7 +3546,7 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G12" t="s">
@@ -3543,7 +3575,7 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G13" t="s">
@@ -3572,7 +3604,7 @@
       <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G14" t="s">
@@ -3601,7 +3633,7 @@
       <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G15" t="s">
@@ -3630,7 +3662,7 @@
       <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G16" t="s">
@@ -3659,7 +3691,7 @@
       <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="2" t="s">
         <v>286</v>
       </c>
       <c r="G17" t="s">
@@ -3707,8 +3739,8 @@
   <sheetPr/>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3773,7 +3805,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>338</v>
       </c>
       <c r="G2" t="s">
@@ -3802,7 +3834,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>338</v>
       </c>
       <c r="G3" t="s">
@@ -3831,7 +3863,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>338</v>
       </c>
       <c r="G4" t="s">
@@ -3860,7 +3892,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>338</v>
       </c>
       <c r="G5" t="s">
@@ -3889,7 +3921,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>338</v>
       </c>
       <c r="G6" t="s">
@@ -4008,7 +4040,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G2" t="s">
@@ -4037,7 +4069,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G3" t="s">
@@ -4066,7 +4098,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G4" t="s">
@@ -4095,7 +4127,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G5" t="s">
@@ -4124,7 +4156,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G6" t="s">
@@ -4224,7 +4256,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>373</v>
       </c>
       <c r="G2" t="s">
@@ -4253,7 +4285,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>373</v>
       </c>
       <c r="G3" t="s">
@@ -4265,7 +4297,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4282,7 +4314,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>373</v>
       </c>
       <c r="G4" t="s">
@@ -4294,7 +4326,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>382</v>
       </c>
     </row>
@@ -4311,7 +4343,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>373</v>
       </c>
       <c r="G5" t="s">
@@ -4323,7 +4355,7 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4340,7 +4372,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>373</v>
       </c>
       <c r="G6" t="s">
@@ -4369,7 +4401,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>373</v>
       </c>
       <c r="G7" t="s">
@@ -4398,7 +4430,7 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>373</v>
       </c>
       <c r="G8" t="s">
@@ -4410,7 +4442,7 @@
       <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="6" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4427,7 +4459,7 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>373</v>
       </c>
       <c r="G9" t="s">
@@ -4439,7 +4471,7 @@
       <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="6" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4456,7 +4488,7 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>373</v>
       </c>
       <c r="G10" t="s">
@@ -4468,7 +4500,7 @@
       <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="6" t="s">
         <v>386</v>
       </c>
     </row>
@@ -4485,7 +4517,7 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>373</v>
       </c>
       <c r="G11" t="s">
@@ -4596,7 +4628,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>408</v>
       </c>
       <c r="G2" t="s">
@@ -4625,7 +4657,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>408</v>
       </c>
       <c r="G3" t="s">
@@ -4654,7 +4686,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>408</v>
       </c>
       <c r="G4" t="s">
@@ -4683,7 +4715,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="2" t="s">
         <v>408</v>
       </c>
       <c r="G5" t="s">
@@ -4802,7 +4834,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>421</v>
       </c>
       <c r="G2" t="s">
@@ -4831,7 +4863,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>421</v>
       </c>
       <c r="G3" t="s">
@@ -4843,7 +4875,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>382</v>
       </c>
     </row>
@@ -4860,7 +4892,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>421</v>
       </c>
       <c r="G4" t="s">
@@ -4872,7 +4904,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>382</v>
       </c>
     </row>
@@ -4960,7 +4992,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>432</v>
       </c>
       <c r="G2" t="s">
@@ -4989,7 +5021,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>432</v>
       </c>
       <c r="G3" t="s">
@@ -5018,7 +5050,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>439</v>
       </c>
       <c r="G4" t="s">
@@ -5047,7 +5079,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>432</v>
       </c>
       <c r="G5" t="s">
@@ -5076,7 +5108,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>432</v>
       </c>
       <c r="G6" t="s">
@@ -5105,7 +5137,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>439</v>
       </c>
       <c r="G7" t="s">
@@ -5141,7 +5173,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -5206,7 +5238,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>449</v>
       </c>
       <c r="G2" t="s">
@@ -5235,7 +5267,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>449</v>
       </c>
       <c r="G3" t="s">
@@ -5247,7 +5279,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5264,7 +5296,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>449</v>
       </c>
       <c r="G4" t="s">
@@ -5276,7 +5308,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5293,7 +5325,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>449</v>
       </c>
       <c r="G5" t="s">
@@ -5305,13 +5337,13 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="3:13">
       <c r="C6" s="1"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="5"/>
       <c r="M6" s="3"/>
     </row>
   </sheetData>
@@ -5332,7 +5364,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5397,7 +5429,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G2" t="s">
@@ -5426,7 +5458,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G3" t="s">
@@ -5455,7 +5487,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G4" t="s">
@@ -5492,8 +5524,8 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5928,8 +5960,8 @@
   <sheetPr/>
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5994,7 +6026,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G2" t="s">
@@ -6023,7 +6055,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G3" t="s">
@@ -6052,7 +6084,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G4" t="s">
@@ -6081,7 +6113,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G5" t="s">
@@ -6110,7 +6142,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G6" t="s">
@@ -6139,7 +6171,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G7" t="s">
@@ -6168,7 +6200,7 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G8" t="s">
@@ -6197,7 +6229,7 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G9" t="s">
@@ -6226,7 +6258,7 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G10" t="s">
@@ -6255,7 +6287,7 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G11" t="s">
@@ -6284,7 +6316,7 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>286</v>
       </c>
       <c r="G12" t="s">
@@ -6324,8 +6356,8 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -6390,7 +6422,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>509</v>
       </c>
       <c r="G2" t="s">
@@ -6408,8 +6440,7 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="3:13">
       <c r="C3" s="1"/>
-      <c r="D3"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="4"/>
       <c r="M3" s="3"/>
     </row>
   </sheetData>
@@ -6421,14 +6452,127 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:13">
+      <c r="A2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" t="s">
+        <v>515</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" ht="50" customHeight="1" spans="1:13">
+      <c r="A3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" t="s">
+        <v>519</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" ht="50" customHeight="1"/>
+    <row r="5" ht="50" customHeight="1"/>
+    <row r="6" ht="50" customHeight="1"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/funHouse/getPwdCount"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/funHouse/getPwdCount"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -7072,7 +7216,7 @@
       <c r="D3" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>132</v>
       </c>
       <c r="G3" t="s">
@@ -7098,7 +7242,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>132</v>
       </c>
       <c r="G4" t="s">
@@ -7124,7 +7268,7 @@
       <c r="D5" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>132</v>
       </c>
       <c r="G5" t="s">
@@ -7142,15 +7286,15 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1"/>
@@ -7176,7 +7320,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -7241,7 +7385,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G2" t="s">
@@ -7270,7 +7414,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G3" t="s">
@@ -7367,7 +7511,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>157</v>
       </c>
       <c r="G2" t="s">
@@ -7396,7 +7540,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>157</v>
       </c>
       <c r="G3" t="s">
@@ -7425,7 +7569,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>157</v>
       </c>
       <c r="G4" t="s">
@@ -7454,7 +7598,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>157</v>
       </c>
       <c r="G5" t="s">
@@ -7557,7 +7701,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>172</v>
       </c>
       <c r="G2" t="s">
@@ -7586,7 +7730,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>172</v>
       </c>
       <c r="G3" t="s">
@@ -7615,7 +7759,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>179</v>
       </c>
       <c r="G4" t="s">
@@ -7644,7 +7788,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G5" t="s">
@@ -7673,7 +7817,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G6" t="s">
@@ -7706,8 +7850,8 @@
   <sheetPr/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7776,7 +7920,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G2" t="s">
@@ -7805,7 +7949,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G3" t="s">
@@ -7834,7 +7978,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G4" t="s">
@@ -7863,7 +8007,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G5" t="s">
@@ -7892,7 +8036,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G6" t="s">
@@ -7921,7 +8065,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G7" t="s">
@@ -7950,7 +8094,7 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G8" t="s">
@@ -7979,7 +8123,7 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G9" t="s">
@@ -8008,7 +8152,7 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G10" t="s">
@@ -8037,7 +8181,7 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G11" t="s">
@@ -8066,7 +8210,7 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G12" t="s">
@@ -8095,7 +8239,7 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G13" t="s">
@@ -8124,7 +8268,7 @@
       <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G14" t="s">
@@ -8153,7 +8297,7 @@
       <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G15" t="s">
@@ -8182,7 +8326,7 @@
       <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G16" t="s">
@@ -8211,7 +8355,7 @@
       <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G17" t="s">
@@ -8240,7 +8384,7 @@
       <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G18" t="s">
@@ -8269,7 +8413,7 @@
       <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G19" t="s">
@@ -8298,7 +8442,7 @@
       <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G20" t="s">
@@ -8327,7 +8471,7 @@
       <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G21" t="s">
@@ -8356,7 +8500,7 @@
       <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G22" t="s">
@@ -8414,7 +8558,7 @@
       <c r="D24" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G24" t="s">
@@ -8443,7 +8587,7 @@
       <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G25" t="s">
@@ -8472,7 +8616,7 @@
       <c r="D26" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G26" t="s">
@@ -8501,7 +8645,7 @@
       <c r="D27" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G27" t="s">
@@ -8530,7 +8674,7 @@
       <c r="D28" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>184</v>
       </c>
       <c r="G28" t="s">
@@ -8548,7 +8692,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/createFunSale"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/createFunSale" tooltip="http://hft.myfun7.com/houseWeb/funSale/createFunSale"/>
     <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/createFunSale"/>
     <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/createFunSale"/>
     <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/createFunSale"/>

--- a/datas/excel_test_datas.xlsx
+++ b/datas/excel_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16350" windowHeight="9495" firstSheet="10" activeTab="11"/>
+    <workbookView windowWidth="16350" windowHeight="9495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="服务器接口" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <t>ROUTEMAC为MACADDR中任何一个值，正常返回用户信息</t>
   </si>
   <si>
-    <t>{"MACADDR":"ER,P1,ZY,ER,P1,ZY","ROUTEMAC":"Y"}</t>
+    <t>{"MACADDR":"ER,P1,ZY,ER,P1,ZY","ROUTEMAC":"ZY"}</t>
   </si>
   <si>
     <t>server_test_003</t>
@@ -127,7 +127,7 @@
     <t>用户未注册</t>
   </si>
   <si>
-    <t>{"MACADDR":"ER,P1,ZY,ER,P1,ZR","ROUTEMAC":"ER,P1,ZY,ER,P1,ZR"}</t>
+    <t>{"MACADDR":"18,31,BF,B1,EE,DY","ROUTEMAC":"24,9E,AB,9A,3D,54"}</t>
   </si>
   <si>
     <t>"ACTION":"PLEASE_REGIST"</t>
@@ -139,7 +139,7 @@
     <t>正确的MACADDR，ROUTEMAC为空时，无用户信息返回</t>
   </si>
   <si>
-    <t>{"MACADDR":"ER,P1,ZY,ER,P1,ZY"}</t>
+    <t>{"MACADDR":"ER,P1,ZY,ER,P1,ZY","ROUTEMAC":""}</t>
   </si>
   <si>
     <t>"ACTION":"PLEASE_ROAMING"</t>
@@ -151,7 +151,7 @@
     <t>正确的ROUTEMAC，MACADDR为空时，无用户信息返回</t>
   </si>
   <si>
-    <t>{"ROUTEMAC":"ER,P1,ZY,ER,P1,ZY"}</t>
+    <t>{"MACADDR":"","ROUTEMAC":"ER,P1,ZY,ER,P1,ZY"}</t>
   </si>
   <si>
     <t>"ACTION":"9"</t>
@@ -259,7 +259,7 @@
     <t>MAC地址错误时，登录失败</t>
   </si>
   <si>
-    <t>action=updateUserLogin&amp;params={"ADMIN_COMP_ID":"283196","LOGIN_PASSWORD":"hejun1130","MACADDR":"ER,P1,ZY,ER,P1,ZR","USER_ID":"20174961"}</t>
+    <t>action=updateUserLogin&amp;params={"ADMIN_COMP_ID":"283196","LOGIN_PASSWORD":"hejun1130","MACADDR":"ER,P1,ZY,ER,P1,ZD","USER_ID":"20174961"}</t>
   </si>
   <si>
     <t>"ERRCODE":"-1"</t>
@@ -285,7 +285,7 @@
 SOAPAction：http://ws.haofang.net</t>
   </si>
   <si>
-    <t>action=updateUserLogin&amp;params={"ADMIN_COMP_ID":"283196","LOGIN_PASSWORD":"hejun1130","MACADDR":"ER,P1,ZY,ER,P1,ZZ","USER_ID":"20174961"}</t>
+    <t>action=updateUserLogin&amp;params={"ADMIN_COMP_ID":"283196","LOGIN_PASSWORD":"hejun1130","MACADDR":"ER,P1,ZY,ER,P1,ZF","USER_ID":"20174961"}</t>
   </si>
   <si>
     <t>login_test_011</t>
@@ -626,7 +626,7 @@
     <t>{"errCode":300,"errMsg":"电话号码不可为空"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_001</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_001</t>
   </si>
   <si>
     <t>正确填写各参数，登记房源成功</t>
@@ -642,7 +642,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"很好的非二而服务费个人俄","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_002</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_002</t>
   </si>
   <si>
     <t>房源标题字数长度为10个字符，登记房源成功</t>
@@ -651,7 +651,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价格","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_003</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_003</t>
   </si>
   <si>
     <t>房源标题字数长度为9个字符，登记房源失败</t>
@@ -663,7 +663,7 @@
     <t>{"errCode":401,"errMsg":"参数错误"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_004</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_004</t>
   </si>
   <si>
     <t>房源标题为空，登记房源失败</t>
@@ -672,7 +672,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_005</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_005</t>
   </si>
   <si>
     <t>房源标题字数长度为30个字符，登记房源失败</t>
@@ -681,7 +681,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通十分便利，瑞升橡树林华府，拎包即可入住环境适合居住","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_006</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_006</t>
   </si>
   <si>
     <t>房源标题字数长度为31个字符，登记房源失败</t>
@@ -690,7 +690,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通十分便利，瑞升橡树林华府，可拎包即可入住环境适合居住","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_007</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_007</t>
   </si>
   <si>
     <t>楼盘名称不存在于楼盘字典中，登记房源失败</t>
@@ -703,7 +703,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"你好","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通十分便利，可拎包即可入住","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_008</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_008</t>
   </si>
   <si>
     <t>楼盘名称为空，登记房源失败</t>
@@ -712,7 +712,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通十分便利，可拎包即可入住","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_009</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_009</t>
   </si>
   <si>
     <t>房源总售价不为数字字符（哈哈），登记房源失败</t>
@@ -721,7 +721,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"哈哈","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_010</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_010</t>
   </si>
   <si>
     <t>房源最低售价不为数字字符（哈哈），登记房源失败</t>
@@ -730,7 +730,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"哈哈","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_011</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_011</t>
   </si>
   <si>
     <t>房源最低售价为负数（-50），登记房源失败</t>
@@ -739,7 +739,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"-50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_012</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_012</t>
   </si>
   <si>
     <t>房源总售价为负数（-50），登记房源失败</t>
@@ -748,7 +748,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"-50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_013</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_013</t>
   </si>
   <si>
     <t>房源最低售价（30）小于等于总售价（50），登记房源成功</t>
@@ -757,7 +757,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"30","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_014</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_014</t>
   </si>
   <si>
     <t>房源最低售价（50）大于总售价（30），登记房源失败</t>
@@ -766,7 +766,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"30","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_015</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_015</t>
   </si>
   <si>
     <t>房源总售价为空，登记房源失败</t>
@@ -775,7 +775,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_016</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_016</t>
   </si>
   <si>
     <t>房源户型为空（不填写厅数），登记房源失败</t>
@@ -784,7 +784,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_017</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_017</t>
   </si>
   <si>
     <t>房源建筑类型（saleType）为空，登记房源失败</t>
@@ -793,7 +793,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"3","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"","saleType":"","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_018</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_018</t>
   </si>
   <si>
     <t>房源建筑年代大于当年（2021），登记房源失败</t>
@@ -802,7 +802,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"3","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"","saleType":"","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2021","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_019</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_019</t>
   </si>
   <si>
     <t>房源建筑年代为空，登记房源失败</t>
@@ -811,7 +811,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"3","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"","saleType":"","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_020</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_020</t>
   </si>
   <si>
     <t>房源建筑年代内容为中文（二零二年），登记房源失败</t>
@@ -820,7 +820,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"3","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"","saleType":"","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"二零二年","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_021</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_021</t>
   </si>
   <si>
     <t>房源建筑年代为负数（-2020），登记房源失败</t>
@@ -829,7 +829,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"3","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"","saleType":"","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"-2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_022</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_022</t>
   </si>
   <si>
     <t>业主电话为空，登记房源失败</t>
@@ -838,7 +838,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价格","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_023</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_023</t>
   </si>
   <si>
     <t>业主电话长度为12位（136840891055），登记房源失败</t>
@@ -847,7 +847,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"136840891055","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价格","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_024</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_024</t>
   </si>
   <si>
     <t>业主电话为0，登记房源失败</t>
@@ -856,7 +856,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"0","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价格","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_025</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_025</t>
   </si>
   <si>
     <t>业主电话为-1，登记房源失败</t>
@@ -865,7 +865,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"0","phoneType":"-1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价格","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_026</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_026</t>
   </si>
   <si>
     <t>所在楼层数不一致（"saleFloor":"8""unitFloorR":"9"），登记房源失败</t>
@@ -874,7 +874,7 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"0","phoneType":"13684089105","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价格","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"9"}</t>
   </si>
   <si>
-    <t>HouseManage_CreatHouse_zhuzhai_test_027</t>
+    <t>HouseManage_CreatHouseSale_zhuzhai_test_027</t>
   </si>
   <si>
     <t>所在楼层大于总楼层数（所在楼层为8，总楼层为7），登记房源失败</t>
@@ -1785,12 +1785,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1846,16 +1846,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1863,7 +1856,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1885,7 +1886,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1899,31 +1929,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1938,30 +1952,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2003,7 +1995,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2015,7 +2037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2027,31 +2049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2063,25 +2067,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2099,43 +2133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2153,19 +2151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2177,13 +2163,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2194,21 +2186,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2236,6 +2213,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2254,8 +2255,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2285,15 +2286,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2302,10 +2294,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2314,16 +2306,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2335,116 +2327,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2466,13 +2458,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
@@ -2485,9 +2486,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2820,13 +2818,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
@@ -2905,7 +2903,7 @@
       <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2931,10 +2929,10 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="17" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -2963,7 +2961,7 @@
       <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -2992,7 +2990,7 @@
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3021,7 +3019,7 @@
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="17" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -3063,14 +3061,18 @@
     <row r="8" ht="54" customHeight="1" spans="2:7">
       <c r="B8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="1"/>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="http://admin.myfun7.com/adminWeb/GetSerpUserSJB.do"/>
     <hyperlink ref="E3" r:id="rId1" display="http://admin.myfun7.com/adminWeb/GetSerpUserSJB.do"/>
     <hyperlink ref="E4" r:id="rId1" display="http://admin.myfun7.com/adminWeb/GetSerpUserSJB.do"/>
+    <hyperlink ref="E13" r:id="rId2" tooltip="http://testapp.51vfang.cn/adminWeb/GetSerpUserSJB.do?LINETYPE=0&amp;MACADDR=18,31,BF,B1,EE,DD&amp;ROUTEMAC=24,9E,AB,9A,3D,52"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3739,8 +3741,8 @@
   <sheetPr/>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5524,8 +5526,8 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5594,19 +5596,19 @@
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -5623,19 +5625,19 @@
       <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="14" t="s">
         <v>52</v>
       </c>
       <c r="I3" t="s">
@@ -5652,19 +5654,19 @@
       <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
@@ -5681,19 +5683,19 @@
       <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="14" t="s">
         <v>60</v>
       </c>
       <c r="I5" t="s">
@@ -5710,19 +5712,19 @@
       <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="14" t="s">
         <v>63</v>
       </c>
       <c r="I6" t="s">
@@ -5739,19 +5741,19 @@
       <c r="B7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="14" t="s">
         <v>66</v>
       </c>
       <c r="I7" t="s">
@@ -5768,19 +5770,19 @@
       <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="14" t="s">
         <v>69</v>
       </c>
       <c r="I8" t="s">
@@ -5797,19 +5799,19 @@
       <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="14" t="s">
         <v>72</v>
       </c>
       <c r="I9" t="s">
@@ -5826,19 +5828,19 @@
       <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="14" t="s">
         <v>76</v>
       </c>
       <c r="I10" t="s">
@@ -5855,19 +5857,19 @@
       <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="14" t="s">
         <v>80</v>
       </c>
       <c r="I11" t="s">
@@ -5884,19 +5886,19 @@
       <c r="B12" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="14" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
@@ -5913,19 +5915,19 @@
       <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="14" t="s">
         <v>87</v>
       </c>
       <c r="I13" t="s">
@@ -5938,17 +5940,17 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices" tooltip="http://erp1.myfun7.com/hftWebService/webservices"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices" tooltip="http://erp1.myfun7.com/hftWebService/webservices"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices" tooltip="http://erp1.myfun7.com/hftWebService/webservices"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices" tooltip="http://erp1.myfun7.com/hftWebService/webservices"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices" tooltip="http://erp1.myfun7.com/hftWebService/webservices"/>
     <hyperlink ref="E7" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices" tooltip="http://erp1.myfun7.com/hftWebService/webservices"/>
-    <hyperlink ref="E3" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices"/>
-    <hyperlink ref="E4" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices"/>
-    <hyperlink ref="E5" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices"/>
-    <hyperlink ref="E6" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices"/>
-    <hyperlink ref="E8" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices"/>
-    <hyperlink ref="E9" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices"/>
-    <hyperlink ref="E13" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices"/>
-    <hyperlink ref="E12" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices"/>
-    <hyperlink ref="E10" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices"/>
-    <hyperlink ref="E11" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices"/>
+    <hyperlink ref="E8" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices" tooltip="http://erp1.myfun7.com/hftWebService/webservices"/>
+    <hyperlink ref="E9" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices" tooltip="http://erp1.myfun7.com/hftWebService/webservices"/>
+    <hyperlink ref="E10" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices" tooltip="http://erp1.myfun7.com/hftWebService/webservices"/>
+    <hyperlink ref="E11" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices" tooltip="http://erp1.myfun7.com/hftWebService/webservices"/>
+    <hyperlink ref="E12" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices" tooltip="http://erp1.myfun7.com/hftWebService/webservices"/>
+    <hyperlink ref="E13" r:id="rId1" display="http://erp1.myfun7.com/hftWebService/webservices" tooltip="http://erp1.myfun7.com/hftWebService/webservices"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6646,19 +6648,19 @@
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -6752,13 +6754,13 @@
       <c r="B2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G2" t="s">
@@ -6781,19 +6783,19 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G3" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="14" t="s">
         <v>98</v>
       </c>
       <c r="I3" t="s">
@@ -6810,13 +6812,13 @@
       <c r="B4" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G4" t="s">
@@ -6839,13 +6841,13 @@
       <c r="B5" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G5" t="s">
@@ -6868,13 +6870,13 @@
       <c r="B6" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G6" t="s">
@@ -6897,13 +6899,13 @@
       <c r="B7" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G7" t="s">
@@ -6926,13 +6928,13 @@
       <c r="B8" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G8" t="s">
@@ -6955,13 +6957,13 @@
       <c r="B9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G9" t="s">
@@ -6984,13 +6986,13 @@
       <c r="B10" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G10" t="s">
@@ -7013,13 +7015,13 @@
       <c r="B11" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G11" t="s">
@@ -7042,13 +7044,13 @@
       <c r="B12" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G12" t="s">
@@ -7071,13 +7073,13 @@
       <c r="B13" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G13" t="s">
@@ -7181,13 +7183,13 @@
       <c r="B2" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>132</v>
       </c>
       <c r="G2" t="s">
@@ -7210,7 +7212,7 @@
       <c r="B3" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D3" t="s">
@@ -7379,7 +7381,7 @@
       <c r="B2" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D2" t="s">
@@ -7408,7 +7410,7 @@
       <c r="B3" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D3" t="s">
@@ -7505,7 +7507,7 @@
       <c r="B2" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D2" t="s">
@@ -7534,7 +7536,7 @@
       <c r="B3" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D3" t="s">
@@ -7563,7 +7565,7 @@
       <c r="B4" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D4" t="s">
@@ -7592,7 +7594,7 @@
       <c r="B5" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
         <v>131</v>
       </c>
       <c r="D5" t="s">
@@ -7850,8 +7852,8 @@
   <sheetPr/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7926,7 +7928,7 @@
       <c r="G2" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>194</v>
       </c>
       <c r="I2" t="s">
@@ -7936,757 +7938,757 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" ht="81" customHeight="1" spans="1:13">
-      <c r="A3" t="s">
+    <row r="3" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" t="s">
+    <row r="4" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" ht="81" customHeight="1" spans="1:13">
-      <c r="A5" t="s">
+    <row r="5" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A5" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="I5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" ht="81" customHeight="1" spans="1:13">
-      <c r="A6" t="s">
+    <row r="6" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A6" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" ht="81" customHeight="1" spans="1:13">
-      <c r="A7" t="s">
+    <row r="7" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A7" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="I7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" ht="81" customHeight="1" spans="1:13">
-      <c r="A8" t="s">
+    <row r="8" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A8" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="I8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" ht="81" customHeight="1" spans="1:13">
-      <c r="A9" t="s">
+    <row r="9" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A9" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G9" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="I9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" ht="81" customHeight="1" spans="1:13">
-      <c r="A10" t="s">
+    <row r="10" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A10" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G10" t="s">
-        <v>193</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="I10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" ht="81" customHeight="1" spans="1:13">
-      <c r="A11" t="s">
+    <row r="11" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A11" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G11" t="s">
-        <v>193</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="I11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" ht="81" customHeight="1" spans="1:13">
-      <c r="A12" t="s">
+    <row r="12" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A12" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G12" t="s">
-        <v>193</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="I12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" ht="81" customHeight="1" spans="1:13">
-      <c r="A13" t="s">
+    <row r="13" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A13" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G13" t="s">
-        <v>193</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="I13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" ht="81" customHeight="1" spans="1:13">
-      <c r="A14" t="s">
+    <row r="14" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G14" t="s">
-        <v>193</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="I14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" ht="81" customHeight="1" spans="1:13">
-      <c r="A15" t="s">
+    <row r="15" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A15" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G15" t="s">
-        <v>193</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="G15" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="I15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" ht="81" customHeight="1" spans="1:13">
-      <c r="A16" t="s">
+    <row r="16" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A16" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G16" t="s">
-        <v>193</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="I16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="I16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" ht="81" customHeight="1" spans="1:13">
-      <c r="A17" t="s">
+    <row r="17" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A17" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G17" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="G17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="I17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="I17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" ht="81" customHeight="1" spans="1:13">
-      <c r="A18" t="s">
+    <row r="18" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A18" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="I18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="I18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" ht="81" customHeight="1" spans="1:13">
-      <c r="A19" t="s">
+    <row r="19" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A19" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G19" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="G19" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="I19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="I19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" ht="81" customHeight="1" spans="1:13">
-      <c r="A20" t="s">
+    <row r="20" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A20" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G20" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="I20" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="I20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" ht="81" customHeight="1" spans="1:13">
-      <c r="A21" t="s">
+    <row r="21" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A21" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G21" t="s">
-        <v>193</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="I21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="I21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" ht="81" customHeight="1" spans="1:13">
-      <c r="A22" t="s">
+    <row r="22" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A22" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G22" t="s">
-        <v>193</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="G22" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="I22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="I22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+    <row r="23" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A23" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="G23" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="7" t="s">
+      <c r="I23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="24" ht="81" customHeight="1" spans="1:13">
-      <c r="A24" t="s">
+    <row r="24" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A24" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G24" t="s">
-        <v>193</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="G24" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="I24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="I24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" ht="81" customHeight="1" spans="1:13">
-      <c r="A25" t="s">
+    <row r="25" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A25" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G25" t="s">
-        <v>193</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="G25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I25" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="I25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" ht="81" customHeight="1" spans="1:13">
-      <c r="A26" t="s">
+    <row r="26" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A26" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G26" t="s">
-        <v>193</v>
-      </c>
-      <c r="H26" s="8" t="s">
+      <c r="G26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="I26" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="I26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" ht="81" customHeight="1" spans="1:13">
-      <c r="A27" t="s">
+    <row r="27" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A27" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G27" t="s">
-        <v>193</v>
-      </c>
-      <c r="H27" s="8" t="s">
+      <c r="G27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="I27" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="I27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" ht="81" customHeight="1" spans="1:13">
-      <c r="A28" t="s">
+    <row r="28" s="7" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A28" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G28" t="s">
-        <v>193</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="I28" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="I28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="7" t="s">
         <v>201</v>
       </c>
     </row>
